--- a/Resistance Measurement.xlsx
+++ b/Resistance Measurement.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C2E149-0D9E-4727-853A-B01D1D09D6DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12765" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Single Rubber Cord" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Z-Shaped Rubber Cord" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Rubber Sheet" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Conductive Jersey" sheetId="4" r:id="rId7"/>
+    <sheet name="Single Rubber Cord" sheetId="1" r:id="rId1"/>
+    <sheet name="Z-Shaped Rubber Cord" sheetId="2" r:id="rId2"/>
+    <sheet name="1122_z" sheetId="5" r:id="rId3"/>
+    <sheet name="Rubber Sheet" sheetId="3" r:id="rId4"/>
+    <sheet name="Conductive Jersey" sheetId="4" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>5cm stretch</t>
   </si>
@@ -35,20 +45,51 @@
   </si>
   <si>
     <t>Stretch (cm)</t>
+  </si>
+  <si>
+    <t>#1.1</t>
+  </si>
+  <si>
+    <t>#1.2</t>
+  </si>
+  <si>
+    <t>#1.3</t>
+  </si>
+  <si>
+    <t>#1.4</t>
+  </si>
+  <si>
+    <t>#1.5</t>
+  </si>
+  <si>
+    <t>#2.1</t>
+  </si>
+  <si>
+    <t>#2.2</t>
+  </si>
+  <si>
+    <t>#2.3</t>
+  </si>
+  <si>
+    <t>#2.4</t>
+  </si>
+  <si>
+    <t>#2.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -59,54 +100,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -296,20 +328,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -323,91 +360,91 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="C2" s="1">
-        <v>717.0</v>
+        <v>717</v>
       </c>
       <c r="D2" s="1">
-        <v>719.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>0.05</v>
       </c>
       <c r="B3" s="1">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="C3" s="1">
-        <v>1049.0</v>
+        <v>1049</v>
       </c>
       <c r="D3" s="1">
-        <v>932.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0.1</v>
       </c>
       <c r="B4" s="1">
-        <v>1044.0</v>
+        <v>1044</v>
       </c>
       <c r="C4" s="1">
-        <v>1105.0</v>
+        <v>1105</v>
       </c>
       <c r="D4" s="1">
-        <v>1080.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0.2</v>
       </c>
       <c r="B5" s="1">
-        <v>1085.0</v>
+        <v>1085</v>
       </c>
       <c r="C5" s="1">
-        <v>1170.0</v>
+        <v>1170</v>
       </c>
       <c r="D5" s="1">
-        <v>1140.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>0.3</v>
       </c>
       <c r="B6" s="1">
-        <v>1105.0</v>
+        <v>1105</v>
       </c>
       <c r="C6" s="1">
-        <v>1162.0</v>
+        <v>1162</v>
       </c>
       <c r="D6" s="1">
-        <v>1145.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.4</v>
       </c>
       <c r="B7" s="1">
-        <v>1170.0</v>
+        <v>1170</v>
       </c>
       <c r="C7" s="1">
-        <v>1197.0</v>
+        <v>1197</v>
       </c>
       <c r="D7" s="1">
-        <v>1165.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -421,106 +458,110 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>1290.0</v>
+        <v>1290</v>
       </c>
       <c r="C10" s="1">
-        <v>1335.0</v>
+        <v>1335</v>
       </c>
       <c r="D10" s="1">
-        <v>1331.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.05</v>
       </c>
       <c r="B11" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="C11" s="1">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="D11" s="1">
-        <v>1915.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.1</v>
       </c>
       <c r="B12" s="1">
-        <v>2110.0</v>
+        <v>2110</v>
       </c>
       <c r="C12" s="1">
-        <v>2153.0</v>
+        <v>2153</v>
       </c>
       <c r="D12" s="1">
-        <v>2182.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.2</v>
       </c>
       <c r="B13" s="1">
-        <v>2184.0</v>
+        <v>2184</v>
       </c>
       <c r="C13" s="1">
-        <v>2260.0</v>
+        <v>2260</v>
       </c>
       <c r="D13" s="1">
-        <v>2376.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.3</v>
       </c>
       <c r="B14" s="1">
-        <v>2256.0</v>
+        <v>2256</v>
       </c>
       <c r="C14" s="1">
-        <v>2393.0</v>
+        <v>2393</v>
       </c>
       <c r="D14" s="1">
-        <v>2343.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.4</v>
       </c>
       <c r="B15" s="1">
-        <v>2297.0</v>
+        <v>2297</v>
       </c>
       <c r="C15" s="1">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="D15" s="1">
-        <v>2364.0</v>
+        <v>2364</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P14" sqref="A1:P14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -533,213 +574,893 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1691.0</v>
+        <v>1691</v>
       </c>
       <c r="C2" s="1">
-        <v>1697.0</v>
+        <v>1697</v>
       </c>
       <c r="D2" s="1">
-        <v>1663.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1663</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1664</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1653</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1709</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1688</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1689</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1736</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1735</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>1961.0</v>
+        <v>1961</v>
       </c>
       <c r="C3" s="1">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="D3" s="1">
-        <v>1998.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1998</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1796</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1786</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1782</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1776</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1770</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1963</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1954</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1960</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1952</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>2154.0</v>
+        <v>2154</v>
       </c>
       <c r="C4" s="1">
-        <v>2158.0</v>
+        <v>2158</v>
       </c>
       <c r="D4" s="1">
-        <v>2044.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2044</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1983</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1975</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1954</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1936</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2168</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2182</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2097</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2039</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
-        <v>2321.0</v>
+        <v>2321</v>
       </c>
       <c r="C5" s="1">
-        <v>2308.0</v>
+        <v>2308</v>
       </c>
       <c r="D5" s="1">
-        <v>2321.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2321</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2120</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2080</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2081</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2073</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2074</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2365</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2329</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2384</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2386</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>2227.0</v>
+        <v>2227</v>
       </c>
       <c r="C6" s="1">
-        <v>2227.0</v>
+        <v>2227</v>
       </c>
       <c r="D6" s="1">
-        <v>2223.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2223</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2225</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2209</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2188</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2178</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2157</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2410</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2366</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2351</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2335</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
-        <v>1008.0</v>
+        <v>1008</v>
       </c>
       <c r="C7" s="1">
-        <v>1037.0</v>
+        <v>1037</v>
       </c>
       <c r="D7" s="1">
-        <v>1050.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2222.0</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>2230.0</v>
+        <v>2317</v>
       </c>
       <c r="G7" s="1">
-        <v>2225.0</v>
+        <v>2277</v>
       </c>
       <c r="H7" s="1">
-        <v>2040.0</v>
+        <v>2273</v>
       </c>
       <c r="I7" s="1">
-        <v>2020.0</v>
+        <v>2269</v>
       </c>
       <c r="J7" s="1">
-        <v>1980.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>2307</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2378</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2363</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2347</v>
+      </c>
+      <c r="O7" s="2">
+        <v>2340</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1">
-        <v>2134.0</v>
+        <v>2134</v>
       </c>
       <c r="C8" s="1">
-        <v>2111.0</v>
+        <v>2111</v>
       </c>
       <c r="D8" s="1">
-        <v>2090.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2090</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2281</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2315</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2281</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2270</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2265</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2374</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2359</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2357</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2348</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="B10" s="1">
-        <v>1694.0</v>
+        <v>1694</v>
       </c>
       <c r="C10" s="1">
-        <v>1694.0</v>
+        <v>1694</v>
       </c>
       <c r="D10" s="1">
-        <v>1694.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1694</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1545</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1520</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1505</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1498</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1493</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1686</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1672</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1666</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1660</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
       <c r="B11" s="1">
-        <v>1583.0</v>
+        <v>1583</v>
       </c>
       <c r="C11" s="1">
-        <v>1573.0</v>
+        <v>1573</v>
       </c>
       <c r="D11" s="1">
-        <v>1561.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1561</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1507</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1490</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1487</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1480</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1475</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1886</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1866</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1868</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1865</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="B12" s="1">
-        <v>1228.0</v>
+        <v>1228</v>
       </c>
       <c r="C12" s="1">
-        <v>1225.0</v>
+        <v>1225</v>
       </c>
       <c r="D12" s="1">
-        <v>1218.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1218</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1155</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1147</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1144</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1147</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1157</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1421</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1415</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1405</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1406</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="B13" s="1">
-        <v>1318.0</v>
+        <v>1318</v>
       </c>
       <c r="C13" s="1">
-        <v>1320.0</v>
+        <v>1320</v>
       </c>
       <c r="D13" s="1">
-        <v>1320.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1320</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1243</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1261</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1271</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1254</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1274</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1340</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1334</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1335</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1352</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA70B06-1CAA-4673-B807-BA2A7E38740B}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1632</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1619</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1644</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1597</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1609</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1221</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1228</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1226</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1228</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1730</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1725</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1721</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1719</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1830</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1812</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1799</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1791</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1783</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1815</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1812</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1796</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1796</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1832</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1819</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1815</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1809</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1805</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1864</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1867</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1844</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1846</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1853</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1878</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1868</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1859</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1864</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1868</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>-10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1017</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1017</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1046</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1074</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1064</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>-20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>997</v>
+      </c>
+      <c r="C11" s="2">
+        <v>992</v>
+      </c>
+      <c r="D11" s="2">
+        <v>987</v>
+      </c>
+      <c r="E11" s="2">
+        <v>980</v>
+      </c>
+      <c r="F11" s="2">
+        <v>975</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>-30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>955</v>
+      </c>
+      <c r="C12" s="2">
+        <v>941</v>
+      </c>
+      <c r="D12" s="2">
+        <v>919</v>
+      </c>
+      <c r="E12" s="2">
+        <v>912</v>
+      </c>
+      <c r="F12" s="2">
+        <v>906</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>-40</v>
+      </c>
+      <c r="B13" s="2">
+        <v>849</v>
+      </c>
+      <c r="C13" s="2">
+        <v>847</v>
+      </c>
+      <c r="D13" s="2">
+        <v>843</v>
+      </c>
+      <c r="E13" s="2">
+        <v>839</v>
+      </c>
+      <c r="F13" s="2">
+        <v>829</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resistance Measurement.xlsx
+++ b/Resistance Measurement.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C2E149-0D9E-4727-853A-B01D1D09D6DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42B31C1-9677-4540-B3A6-0D7209E9FD04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12765" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Rubber Cord" sheetId="1" r:id="rId1"/>
     <sheet name="Z-Shaped Rubber Cord" sheetId="2" r:id="rId2"/>
-    <sheet name="1122_z" sheetId="5" r:id="rId3"/>
+    <sheet name="board_z" sheetId="5" r:id="rId3"/>
     <sheet name="Rubber Sheet" sheetId="3" r:id="rId4"/>
     <sheet name="Conductive Jersey" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>5cm stretch</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>#2.5</t>
+  </si>
+  <si>
+    <t>#3.1</t>
+  </si>
+  <si>
+    <t>#3.2</t>
+  </si>
+  <si>
+    <t>#3.3</t>
+  </si>
+  <si>
+    <t>#3.4</t>
+  </si>
+  <si>
+    <t>#3.5</t>
   </si>
 </sst>
 </file>
@@ -1102,15 +1117,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA70B06-1CAA-4673-B807-BA2A7E38740B}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1144,291 +1160,571 @@
       <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="C2" s="2">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="D2" s="2">
-        <v>1644</v>
+        <v>1624</v>
       </c>
       <c r="E2" s="2">
-        <v>1597</v>
+        <v>1620</v>
       </c>
       <c r="F2" s="2">
+        <v>1612</v>
+      </c>
+      <c r="H2" s="2">
         <v>1609</v>
       </c>
-      <c r="H2" s="2">
-        <v>1221</v>
-      </c>
       <c r="I2" s="2">
-        <v>1228</v>
+        <v>1607</v>
       </c>
       <c r="J2" s="2">
-        <v>1226</v>
+        <v>1609</v>
       </c>
       <c r="K2" s="2">
-        <v>1228</v>
+        <v>1601</v>
       </c>
       <c r="L2" s="2">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1604</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1638</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1637</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1620</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1616</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>1730</v>
+        <v>1842</v>
       </c>
       <c r="C3" s="2">
-        <v>1724</v>
+        <v>1828</v>
       </c>
       <c r="D3" s="2">
-        <v>1725</v>
+        <v>1827</v>
       </c>
       <c r="E3" s="2">
-        <v>1721</v>
+        <v>1826</v>
       </c>
       <c r="F3" s="2">
-        <v>1719</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1825</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1797</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1785</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1784</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1786</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1785</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1824</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1811</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1809</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1811</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>1830</v>
+        <v>1904</v>
       </c>
       <c r="C4" s="2">
-        <v>1812</v>
+        <v>1898</v>
       </c>
       <c r="D4" s="2">
-        <v>1799</v>
+        <v>1891</v>
       </c>
       <c r="E4" s="2">
-        <v>1791</v>
+        <v>1889</v>
       </c>
       <c r="F4" s="2">
-        <v>1783</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1888</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1844</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1841</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1838</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1815</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1816</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1872</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1869</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1868</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1869</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>1815</v>
+        <v>1902</v>
       </c>
       <c r="C5" s="2">
-        <v>1812</v>
+        <v>1904</v>
       </c>
       <c r="D5" s="2">
-        <v>1803</v>
+        <v>1903</v>
       </c>
       <c r="E5" s="2">
-        <v>1796</v>
+        <v>1990</v>
       </c>
       <c r="F5" s="2">
-        <v>1796</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1896</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1866</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1854</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1840</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1851</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1844</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1947</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1939</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1931</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1920</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>40</v>
       </c>
       <c r="B6" s="2">
-        <v>1832</v>
+        <v>1988</v>
       </c>
       <c r="C6" s="2">
-        <v>1819</v>
+        <v>1980</v>
       </c>
       <c r="D6" s="2">
-        <v>1815</v>
+        <v>1979</v>
       </c>
       <c r="E6" s="2">
-        <v>1809</v>
+        <v>1972</v>
       </c>
       <c r="F6" s="2">
-        <v>1805</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1971</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1872</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1864</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1849</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1840</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1861</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1977</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1971</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1967</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1958</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>50</v>
       </c>
       <c r="B7" s="2">
-        <v>1864</v>
+        <v>2003</v>
       </c>
       <c r="C7" s="2">
-        <v>1867</v>
+        <v>1993</v>
       </c>
       <c r="D7" s="2">
-        <v>1844</v>
+        <v>1987</v>
       </c>
       <c r="E7" s="2">
-        <v>1846</v>
+        <v>1992</v>
       </c>
       <c r="F7" s="2">
-        <v>1853</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1989</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1933</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1918</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1902</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1911</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1891</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1995</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1988</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1981</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1984</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>60</v>
       </c>
       <c r="B8" s="2">
-        <v>1878</v>
+        <v>2014</v>
       </c>
       <c r="C8" s="2">
-        <v>1868</v>
+        <v>2015</v>
       </c>
       <c r="D8" s="2">
-        <v>1859</v>
+        <v>2010</v>
       </c>
       <c r="E8" s="2">
-        <v>1864</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="2">
-        <v>1868</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1950</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1955</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1933</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1931</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1939</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2025</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2019</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>-10</v>
       </c>
       <c r="B10" s="2">
-        <v>1017</v>
+        <v>1336</v>
       </c>
       <c r="C10" s="2">
-        <v>1017</v>
+        <v>1343</v>
       </c>
       <c r="D10" s="2">
-        <v>1046</v>
+        <v>1335</v>
       </c>
       <c r="E10" s="2">
-        <v>1074</v>
+        <v>1330</v>
       </c>
       <c r="F10" s="2">
-        <v>1064</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1328</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1438</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1409</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1392</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1393</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1393</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1377</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1350</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1346</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1344</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>-20</v>
       </c>
       <c r="B11" s="2">
-        <v>997</v>
+        <v>1194</v>
       </c>
       <c r="C11" s="2">
-        <v>992</v>
+        <v>1190</v>
       </c>
       <c r="D11" s="2">
-        <v>987</v>
+        <v>1186</v>
       </c>
       <c r="E11" s="2">
-        <v>980</v>
+        <v>1185</v>
       </c>
       <c r="F11" s="2">
-        <v>975</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1177</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1152</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1143</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1144</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1141</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1142</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1222</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1187</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1178</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1190</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>-30</v>
       </c>
       <c r="B12" s="2">
-        <v>955</v>
+        <v>1195</v>
       </c>
       <c r="C12" s="2">
-        <v>941</v>
+        <v>1188</v>
       </c>
       <c r="D12" s="2">
-        <v>919</v>
+        <v>1182</v>
       </c>
       <c r="E12" s="2">
-        <v>912</v>
+        <v>1180</v>
       </c>
       <c r="F12" s="2">
-        <v>906</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1158</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1156</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1159</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1153</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1155</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1160</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1152</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1147</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1145</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>-40</v>
       </c>
       <c r="B13" s="2">
-        <v>849</v>
+        <v>1120</v>
       </c>
       <c r="C13" s="2">
-        <v>847</v>
+        <v>1119</v>
       </c>
       <c r="D13" s="2">
-        <v>843</v>
+        <v>1114</v>
       </c>
       <c r="E13" s="2">
-        <v>839</v>
+        <v>1111</v>
       </c>
       <c r="F13" s="2">
-        <v>829</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>1108</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1093</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1081</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1083</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1080</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1084</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1087</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1082</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1079</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1080</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1070</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
